--- a/matsukifudousan/files/買付証明書.xlsx
+++ b/matsukifudousan/files/買付証明書.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\fudousan\file\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\source\repos\matsukifudousan-git-backup - コピー\matsukifudousan\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F151456-DC6F-4491-83DB-0BCCFE298397}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D87C447-688B-44C6-B4B6-CF1DA606DB93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D394B405-FDB9-4B86-968D-59F93925195C}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D394B405-FDB9-4B86-968D-59F93925195C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,11 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="41">
-  <si>
-    <t>売　渡　確　認　書</t>
-    <phoneticPr fontId="1"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
   <si>
     <t>年　　月　　日</t>
     <phoneticPr fontId="1"/>
@@ -48,13 +44,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>売主住所</t>
-  </si>
-  <si>
-    <t>売主氏名　　　　　　　　　　　　印</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>記</t>
   </si>
   <si>
@@ -80,22 +69,10 @@
     <t>土地所在地</t>
   </si>
   <si>
-    <t>　函南町上沢</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>地　番</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>　697-7</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>　宅地</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>地　積</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -104,10 +81,6 @@
   </si>
   <si>
     <t>構　　　造</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>　木造2階建</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -206,8 +179,84 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t xml:space="preserve">　約定報酬額は、200万以内の媒介価格X5.5%（税込）、200万を超え400万以内の媒介価格 </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　X4.4%（税込）と400万円を超えた媒介価格X 3.3%（税込）を合計した金額を支払います。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　1.  銀行融資にて購入するため、ローン条項をつける。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　2.   融資は必要ないのでローン条項は不要です。</t>
+    <rPh sb="18" eb="20">
+      <t>ジョウコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1. 反社会勢力とは無関係です。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1. 過去7年以内に銀行等の支払いを遅延したことはありません。 </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1. 現在借入金またはカード使用はありません。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1 .過去3年以内に入院・手術・投薬等は有りません。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>地目・権利</t>
+    <rPh sb="3" eb="5">
+      <t>ケンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>床　面 　積</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>買　付　証　明　書</t>
+    <rPh sb="0" eb="1">
+      <t>バイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ツキ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>アカシ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>アキラ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>買主住所</t>
+    <rPh sb="0" eb="2">
+      <t>カイヌシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>買主氏名　　　　　　　　　　　　印</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <r>
-      <t>　　　165.29 m</t>
+      <t xml:space="preserve"> m</t>
     </r>
     <r>
       <rPr>
@@ -225,7 +274,7 @@
   </si>
   <si>
     <r>
-      <t>　　93.61　m</t>
+      <t>m</t>
     </r>
     <r>
       <rPr>
@@ -239,52 +288,6 @@
       </rPr>
       <t>2</t>
     </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">　約定報酬額は、200万以内の媒介価格X5.5%（税込）、200万を超え400万以内の媒介価格 </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>　X4.4%（税込）と400万円を超えた媒介価格X 3.3%（税込）を合計した金額を支払います。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>　1.  銀行融資にて購入するため、ローン条項をつける。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>　2.   融資は必要ないのでローン条項は不要です。</t>
-    <rPh sb="18" eb="20">
-      <t>ジョウコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1. 反社会勢力とは無関係です。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1. 過去7年以内に銀行等の支払いを遅延したことはありません。 </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1. 現在借入金またはカード使用はありません。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1 .過去3年以内に入院・手術・投薬等は有りません。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>地目・権利</t>
-    <rPh sb="3" eb="5">
-      <t>ケンリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>床　面 　積</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -555,78 +558,129 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -636,58 +690,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1006,8 +1009,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{150D46FA-83D9-4DEC-8A87-3B02C8500F1B}">
   <dimension ref="A1:H38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1021,7 +1024,7 @@
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2" t="s">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
@@ -1034,23 +1037,23 @@
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="43"/>
+      <c r="H2" s="44"/>
+    </row>
+    <row r="3" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="6"/>
-      <c r="H2" s="7"/>
-    </row>
-    <row r="3" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
-      <c r="H3" s="10"/>
+      <c r="H3" s="8"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4" s="4"/>
@@ -1060,7 +1063,7 @@
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
-      <c r="H4" s="10"/>
+      <c r="H4" s="8"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A5" s="4"/>
@@ -1070,19 +1073,19 @@
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
-      <c r="H5" s="10"/>
+      <c r="H5" s="8"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A6" s="4"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
-      <c r="E6" s="11" t="s">
-        <v>3</v>
+      <c r="E6" s="9" t="s">
+        <v>33</v>
       </c>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
-      <c r="H6" s="10"/>
+      <c r="H6" s="8"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A7" s="4"/>
@@ -1092,19 +1095,19 @@
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
-      <c r="H7" s="10"/>
+      <c r="H7" s="8"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A8" s="4"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
-      <c r="E8" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F8" s="13"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="14"/>
+      <c r="E8" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" s="11"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="12"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A9" s="4"/>
@@ -1114,406 +1117,394 @@
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
-      <c r="H9" s="10"/>
+      <c r="H9" s="8"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A10" s="36" t="s">
+      <c r="A10" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="15"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A11" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="38"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="26"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A12" s="45" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="46"/>
+      <c r="C12" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="38"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="26"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A13" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="35"/>
+      <c r="C13" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="37"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="37"/>
-      <c r="G10" s="37"/>
-      <c r="H10" s="38"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A11" s="15" t="s">
+      <c r="D13" s="48"/>
+      <c r="E13" s="48"/>
+      <c r="F13" s="48"/>
+      <c r="G13" s="48"/>
+      <c r="H13" s="49"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A14" s="45"/>
+      <c r="B14" s="46"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="50"/>
+      <c r="F14" s="50"/>
+      <c r="G14" s="50"/>
+      <c r="H14" s="37"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A15" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" s="29"/>
+      <c r="C15" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="29"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A16" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="35"/>
+      <c r="C16" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="35"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A17" s="39"/>
+      <c r="B17" s="40"/>
+      <c r="C17" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="42"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="40"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A18" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="16"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A12" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" s="24"/>
-      <c r="C12" s="15" t="s">
+      <c r="B18" s="35"/>
+      <c r="C18" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="18"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A19" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" s="37"/>
+      <c r="C19" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="21"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A20" s="16"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="16"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A13" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" s="21"/>
-      <c r="C13" s="30" t="s">
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="15"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A21" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" s="15"/>
+      <c r="C21" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="31"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="32"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A14" s="23"/>
-      <c r="B14" s="24"/>
-      <c r="C14" s="33"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="35"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A15" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="B15" s="19"/>
-      <c r="C15" s="18" t="s">
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="15"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A22" s="22"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="19"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A16" s="20" t="s">
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="15"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A23" s="22"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="15"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A24" s="16"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="18"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A25" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="B25" s="15"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="15"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A26" s="22"/>
+      <c r="B26" s="15"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="23"/>
+      <c r="H26" s="15"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A27" s="22"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="15"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A28" s="19"/>
+      <c r="B28" s="15"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="20"/>
+      <c r="H28" s="21"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A29" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="21"/>
-      <c r="C16" s="20" t="s">
+      <c r="B29" s="38"/>
+      <c r="C29" s="38"/>
+      <c r="D29" s="38"/>
+      <c r="E29" s="38"/>
+      <c r="F29" s="38"/>
+      <c r="G29" s="38"/>
+      <c r="H29" s="26"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A30" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30" s="37"/>
+      <c r="C30" s="27"/>
+      <c r="D30" s="28"/>
+      <c r="E30" s="29"/>
+      <c r="F30" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="G30" s="27"/>
+      <c r="H30" s="29"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A31" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" s="26"/>
+      <c r="C31" s="27"/>
+      <c r="D31" s="28"/>
+      <c r="E31" s="29"/>
+      <c r="F31" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="G31" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="H31" s="29"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A32" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="B32" s="26"/>
+      <c r="C32" s="27"/>
+      <c r="D32" s="28"/>
+      <c r="E32" s="29"/>
+      <c r="F32" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="G32" s="32"/>
+      <c r="H32" s="33"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A33" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="B33" s="26"/>
+      <c r="C33" s="27"/>
+      <c r="D33" s="28"/>
+      <c r="E33" s="28"/>
+      <c r="F33" s="28"/>
+      <c r="G33" s="28"/>
+      <c r="H33" s="29"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A34" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="21"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A17" s="26"/>
-      <c r="B17" s="27"/>
-      <c r="C17" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="D17" s="28"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="28"/>
-      <c r="H17" s="27"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A18" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="B18" s="21"/>
-      <c r="C18" s="39" t="s">
-        <v>33</v>
-      </c>
-      <c r="D18" s="40"/>
-      <c r="E18" s="40"/>
-      <c r="F18" s="40"/>
-      <c r="G18" s="40"/>
-      <c r="H18" s="41"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A19" s="33" t="s">
-        <v>9</v>
-      </c>
-      <c r="B19" s="35"/>
-      <c r="C19" s="42" t="s">
-        <v>34</v>
-      </c>
-      <c r="D19" s="43"/>
-      <c r="E19" s="43"/>
-      <c r="F19" s="43"/>
-      <c r="G19" s="43"/>
-      <c r="H19" s="44"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A20" s="39"/>
-      <c r="B20" s="41"/>
-      <c r="C20" s="37" t="s">
-        <v>35</v>
-      </c>
-      <c r="D20" s="37"/>
-      <c r="E20" s="37"/>
-      <c r="F20" s="37"/>
-      <c r="G20" s="37"/>
-      <c r="H20" s="38"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A21" s="45" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" s="38"/>
-      <c r="C21" s="37" t="s">
+      <c r="B34" s="26"/>
+      <c r="C34" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="D21" s="37"/>
-      <c r="E21" s="37"/>
-      <c r="F21" s="37"/>
-      <c r="G21" s="37"/>
-      <c r="H21" s="38"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A22" s="45"/>
-      <c r="B22" s="38"/>
-      <c r="C22" s="37" t="s">
-        <v>37</v>
-      </c>
-      <c r="D22" s="37"/>
-      <c r="E22" s="37"/>
-      <c r="F22" s="37"/>
-      <c r="G22" s="37"/>
-      <c r="H22" s="38"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A23" s="45"/>
-      <c r="B23" s="38"/>
-      <c r="C23" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="D23" s="37"/>
-      <c r="E23" s="37"/>
-      <c r="F23" s="37"/>
-      <c r="G23" s="37"/>
-      <c r="H23" s="38"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A24" s="39"/>
-      <c r="B24" s="41"/>
-      <c r="C24" s="40"/>
-      <c r="D24" s="40"/>
-      <c r="E24" s="40"/>
-      <c r="F24" s="40"/>
-      <c r="G24" s="40"/>
-      <c r="H24" s="41"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A25" s="45" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" s="38"/>
-      <c r="C25" s="46"/>
-      <c r="D25" s="46"/>
-      <c r="E25" s="46"/>
-      <c r="F25" s="46"/>
-      <c r="G25" s="46"/>
-      <c r="H25" s="38"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A26" s="45"/>
-      <c r="B26" s="38"/>
-      <c r="C26" s="46"/>
-      <c r="D26" s="46"/>
-      <c r="E26" s="46"/>
-      <c r="F26" s="46"/>
-      <c r="G26" s="46"/>
-      <c r="H26" s="38"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A27" s="45"/>
-      <c r="B27" s="38"/>
-      <c r="C27" s="46"/>
-      <c r="D27" s="46"/>
-      <c r="E27" s="46"/>
-      <c r="F27" s="46"/>
-      <c r="G27" s="46"/>
-      <c r="H27" s="38"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A28" s="42"/>
-      <c r="B28" s="38"/>
-      <c r="C28" s="43"/>
-      <c r="D28" s="43"/>
-      <c r="E28" s="43"/>
-      <c r="F28" s="43"/>
-      <c r="G28" s="43"/>
-      <c r="H28" s="44"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A29" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="B29" s="17"/>
-      <c r="C29" s="17"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="17"/>
-      <c r="G29" s="17"/>
-      <c r="H29" s="16"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A30" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="B30" s="35"/>
-      <c r="C30" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="D30" s="25"/>
-      <c r="E30" s="19"/>
-      <c r="F30" s="47" t="s">
-        <v>13</v>
-      </c>
-      <c r="G30" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="H30" s="19"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A31" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="B31" s="16"/>
-      <c r="C31" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D31" s="25"/>
-      <c r="E31" s="19"/>
-      <c r="F31" s="47" t="s">
-        <v>16</v>
-      </c>
-      <c r="G31" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="H31" s="19"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A32" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B32" s="16"/>
-      <c r="C32" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="D32" s="25"/>
-      <c r="E32" s="19"/>
-      <c r="F32" s="47" t="s">
-        <v>13</v>
-      </c>
-      <c r="G32" s="48" t="s">
-        <v>14</v>
-      </c>
-      <c r="H32" s="49"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A33" s="15" t="s">
+      <c r="D34" s="28"/>
+      <c r="E34" s="28"/>
+      <c r="F34" s="28"/>
+      <c r="G34" s="28"/>
+      <c r="H34" s="29"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A35" s="16"/>
+      <c r="B35" s="18"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="17"/>
+      <c r="H35" s="18"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A36" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="B33" s="16"/>
-      <c r="C33" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="D33" s="25"/>
-      <c r="E33" s="25"/>
-      <c r="F33" s="25"/>
-      <c r="G33" s="25"/>
-      <c r="H33" s="19"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A34" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="B34" s="16"/>
-      <c r="C34" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="D34" s="25"/>
-      <c r="E34" s="25"/>
-      <c r="F34" s="25"/>
-      <c r="G34" s="25"/>
-      <c r="H34" s="19"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A35" s="39"/>
-      <c r="B35" s="41"/>
-      <c r="C35" s="40"/>
-      <c r="D35" s="40"/>
-      <c r="E35" s="40"/>
-      <c r="F35" s="40"/>
-      <c r="G35" s="40"/>
-      <c r="H35" s="41"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A36" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="B36" s="50"/>
-      <c r="C36" s="46"/>
-      <c r="D36" s="46"/>
-      <c r="E36" s="46"/>
-      <c r="F36" s="46"/>
-      <c r="G36" s="46"/>
-      <c r="H36" s="38"/>
+      <c r="B36" s="31"/>
+      <c r="C36" s="23"/>
+      <c r="D36" s="23"/>
+      <c r="E36" s="23"/>
+      <c r="F36" s="23"/>
+      <c r="G36" s="23"/>
+      <c r="H36" s="15"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A37" s="42"/>
-      <c r="B37" s="44"/>
-      <c r="C37" s="43"/>
-      <c r="D37" s="43"/>
-      <c r="E37" s="43"/>
-      <c r="F37" s="43"/>
-      <c r="G37" s="43"/>
-      <c r="H37" s="44"/>
+      <c r="A37" s="19"/>
+      <c r="B37" s="21"/>
+      <c r="C37" s="20"/>
+      <c r="D37" s="20"/>
+      <c r="E37" s="20"/>
+      <c r="F37" s="20"/>
+      <c r="G37" s="20"/>
+      <c r="H37" s="21"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A38" s="37"/>
-      <c r="B38" s="37"/>
-      <c r="C38" s="37"/>
-      <c r="D38" s="37"/>
-      <c r="E38" s="37"/>
-      <c r="F38" s="37"/>
-      <c r="G38" s="37"/>
-      <c r="H38" s="37"/>
+      <c r="A38" s="14"/>
+      <c r="B38" s="14"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
+      <c r="G38" s="14"/>
+      <c r="H38" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="C34:H34"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="C33:H33"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:H12"/>
+    <mergeCell ref="A13:B14"/>
+    <mergeCell ref="A11:H11"/>
+    <mergeCell ref="C13:H14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:H15"/>
+    <mergeCell ref="A16:B17"/>
+    <mergeCell ref="C16:H16"/>
+    <mergeCell ref="C17:H17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="A29:H29"/>
     <mergeCell ref="A31:B31"/>
     <mergeCell ref="C31:E31"/>
     <mergeCell ref="G31:H31"/>
     <mergeCell ref="A32:B32"/>
     <mergeCell ref="C32:E32"/>
     <mergeCell ref="G32:H32"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="A29:H29"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:H15"/>
-    <mergeCell ref="A16:B17"/>
-    <mergeCell ref="C16:H16"/>
-    <mergeCell ref="C17:H17"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:H12"/>
-    <mergeCell ref="A13:B14"/>
-    <mergeCell ref="A11:H11"/>
-    <mergeCell ref="C13:H14"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:H34"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C33:H33"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
